--- a/trend_results/Lakes/LakeKoitiata_919f8c7962.xlsx
+++ b/trend_results/Lakes/LakeKoitiata_919f8c7962.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>site name</t>
   </si>
@@ -109,40 +109,31 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Lake</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
+    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -618,37 +609,37 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.119468670886753</v>
+        <v>0.945977014389122</v>
       </c>
       <c r="G2">
-        <v>0.214285714285714</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="H2">
-        <v>0.535714285714286</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K2">
-        <v>0.317013930276472</v>
+        <v>-0.394864864864865</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-0.810097292249648</v>
       </c>
       <c r="M2">
-        <v>0.754310693689934</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>10.2262558153701</v>
+        <v>-14.3587223587224</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q2">
         <v>1787118.23889</v>
@@ -657,19 +648,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>44</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -689,37 +680,37 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.405146517228377</v>
+        <v>0.661869053984792</v>
       </c>
       <c r="G3">
-        <v>0.0357142857142857</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H3">
-        <v>0.535714285714286</v>
+        <v>0.5588235294117651</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-2.67787389168051</v>
+        <v>-4.94492582926363</v>
       </c>
       <c r="M3">
-        <v>5.18174681241731</v>
+        <v>2.58141878437733</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
         <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
       </c>
       <c r="Q3">
         <v>1787118.23889</v>
@@ -728,19 +719,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>45</v>
-      </c>
-      <c r="V3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -760,37 +751,37 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>0.979033804538074</v>
+        <v>0.864356442108529</v>
       </c>
       <c r="G4">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0125882932389248</v>
+        <v>0.0132493411516915</v>
       </c>
       <c r="K4">
-        <v>-0.0040482055262052</v>
+        <v>-0.0022964483190651</v>
       </c>
       <c r="L4">
-        <v>-0.0095388174621361</v>
+        <v>-0.0061760785199021</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0015683799246671</v>
       </c>
       <c r="N4">
-        <v>-32.1584940020912</v>
+        <v>-17.3325472774319</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q4">
         <v>1787118.23889</v>
@@ -799,19 +790,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>46</v>
-      </c>
-      <c r="W4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -828,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.7840535266574939</v>
+        <v>0.68845647446358</v>
       </c>
       <c r="G5">
-        <v>0.785714285714286</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="H5">
-        <v>0.214285714285714</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -858,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1787118.23889</v>
@@ -870,19 +861,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
         <v>43</v>
       </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>46</v>
-      </c>
-      <c r="W5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -899,40 +890,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>0.004138553072906</v>
+        <v>0.283129836298656</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.92</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.96</v>
+        <v>7.93</v>
       </c>
       <c r="K6">
-        <v>-0.309849128208838</v>
+        <v>-0.07998860140722561</v>
       </c>
       <c r="L6">
-        <v>-0.481760547817897</v>
+        <v>-0.272755046958976</v>
       </c>
       <c r="M6">
-        <v>-0.11553665328683</v>
+        <v>0.121587100374109</v>
       </c>
       <c r="N6">
-        <v>-3.89257698754822</v>
+        <v>-1.00868349819957</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1787118.23889</v>
@@ -941,16 +932,16 @@
         <v>5556832.78764</v>
       </c>
       <c r="S6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" t="s">
         <v>43</v>
-      </c>
-      <c r="T6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -967,40 +958,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>0.208661804115731</v>
+        <v>0.961540096444382</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.821428571428571</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.15</v>
+        <v>1.065</v>
       </c>
       <c r="K7">
-        <v>0.0146989447309408</v>
+        <v>-0.0316690751445086</v>
       </c>
       <c r="L7">
-        <v>-0.0149722124632491</v>
+        <v>-0.07057953133615159</v>
       </c>
       <c r="M7">
-        <v>0.0417200641691685</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.27816910703833</v>
+        <v>-2.97362207929658</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1787118.23889</v>
@@ -1009,19 +1000,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" t="s">
         <v>43</v>
       </c>
-      <c r="T7" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" t="s">
-        <v>46</v>
-      </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1038,40 +1029,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>0.429153302752676</v>
+        <v>0.994940017050547</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.642857142857143</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0255</v>
+        <v>0.0245</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-0.0022347042828008</v>
       </c>
       <c r="L8">
-        <v>-0.0014842963712883</v>
+        <v>-0.0037053487774396</v>
       </c>
       <c r="M8">
-        <v>0.0015977847724215</v>
+        <v>-0.0008899583089212</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>-9.12124197061558</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1787118.23889</v>
@@ -1080,19 +1071,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" t="s">
         <v>43</v>
       </c>
-      <c r="T8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V8" t="s">
-        <v>46</v>
-      </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1109,40 +1100,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>0.0187587025528638</v>
+        <v>0.517860301125507</v>
       </c>
       <c r="G9">
-        <v>0.282051282051282</v>
+        <v>0.387755102040816</v>
       </c>
       <c r="H9">
-        <v>0.435897435897436</v>
+        <v>0.36734693877551</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="K9">
-        <v>0.247627118644068</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-0.0403780139592822</v>
       </c>
       <c r="M9">
-        <v>0.434368318144512</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>8.53886616014027</v>
+        <v>0</v>
       </c>
       <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
         <v>35</v>
-      </c>
-      <c r="P9" t="s">
-        <v>41</v>
       </c>
       <c r="Q9">
         <v>1787118.23889</v>
@@ -1151,19 +1142,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" t="s">
         <v>43</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>44</v>
-      </c>
-      <c r="U9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V9" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1180,40 +1171,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>0.753753698482497</v>
+        <v>0.787924131787107</v>
       </c>
       <c r="G10">
-        <v>0.0555555555555556</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H10">
-        <v>0.472222222222222</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="K10">
-        <v>-0.722224584347418</v>
+        <v>-0.747697031729785</v>
       </c>
       <c r="L10">
-        <v>-3.58148330300628</v>
+        <v>-3.0795412582552</v>
       </c>
       <c r="M10">
-        <v>1.13121648674858</v>
+        <v>0.313515384275999</v>
       </c>
       <c r="N10">
-        <v>-4.51390365217136</v>
+        <v>-4.55912824225479</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q10">
         <v>1787118.23889</v>
@@ -1222,19 +1213,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" t="s">
         <v>43</v>
       </c>
-      <c r="T10" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>45</v>
-      </c>
-      <c r="V10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1251,40 +1242,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>0.0549481092646773</v>
+        <v>0.861678724798828</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.717948717948718</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K11">
-        <v>0.0102598314606742</v>
+        <v>-0.0064022787028922</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.016976429932214</v>
       </c>
       <c r="M11">
-        <v>0.0212629067351723</v>
+        <v>0.0018072881674006</v>
       </c>
       <c r="N11">
-        <v>0.9079496867853249</v>
+        <v>-0.582025336626564</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q11">
         <v>1787118.23889</v>
@@ -1293,19 +1284,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" t="s">
         <v>43</v>
       </c>
-      <c r="T11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U11" t="s">
-        <v>45</v>
-      </c>
-      <c r="V11" t="s">
-        <v>46</v>
-      </c>
       <c r="W11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1322,37 +1313,37 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>0.326517053577426</v>
+        <v>0.829222059974643</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.487179487179487</v>
+        <v>0.469387755102041</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.0003108603960224</v>
       </c>
       <c r="L12">
-        <v>-0.000535471153576</v>
+        <v>-0.0009255233832219</v>
       </c>
       <c r="M12">
-        <v>0.0010172725873691</v>
+        <v>0.0001846881408257</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-1.29525165009339</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P12" t="s">
         <v>36</v>
@@ -1364,19 +1355,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" t="s">
         <v>43</v>
       </c>
-      <c r="T12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" t="s">
-        <v>46</v>
-      </c>
       <c r="W12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakeKoitiata_919f8c7962.xlsx
+++ b/trend_results/Lakes/LakeKoitiata_919f8c7962.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Koitiata</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -118,15 +121,15 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>West_5</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.945977014389122</v>
+        <v>0.78114234336905</v>
       </c>
       <c r="G2">
-        <v>0.352941176470588</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.441176470588235</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.75</v>
+        <v>0.003</v>
       </c>
       <c r="K2">
-        <v>-0.394864864864865</v>
+        <v>-0.0002159132162575</v>
       </c>
       <c r="L2">
-        <v>-0.810097292249648</v>
+        <v>-0.002059133625874</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0006284224668207001</v>
       </c>
       <c r="N2">
-        <v>-14.3587223587224</v>
+        <v>-7.19710720858538</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2">
         <v>1787118.23889</v>
@@ -648,19 +654,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -680,37 +686,37 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.661869053984792</v>
+        <v>0.945977014389122</v>
       </c>
       <c r="G3">
-        <v>0.0588235294117647</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="H3">
-        <v>0.5588235294117651</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>16.4</v>
+        <v>2.75</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.394864864864865</v>
       </c>
       <c r="L3">
-        <v>-4.94492582926363</v>
+        <v>-0.810097292249648</v>
       </c>
       <c r="M3">
-        <v>2.58141878437733</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-14.3587223587224</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <v>1787118.23889</v>
@@ -719,19 +725,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -748,40 +754,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.864356442108529</v>
+        <v>0.661869053984792</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H4">
+        <v>0.5588235294117651</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0.0132493411516915</v>
+        <v>16.4</v>
       </c>
       <c r="K4">
-        <v>-0.0022964483190651</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0061760785199021</v>
+        <v>-4.94492582926363</v>
       </c>
       <c r="M4">
-        <v>0.0015683799246671</v>
+        <v>2.58141878437733</v>
       </c>
       <c r="N4">
-        <v>-17.3325472774319</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>1787118.23889</v>
@@ -790,19 +796,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -822,37 +828,37 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0.68845647446358</v>
+        <v>0.864356442108529</v>
       </c>
       <c r="G5">
-        <v>0.764705882352941</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0025</v>
+        <v>0.0132493411516915</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.0022964483190651</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0061760785199021</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0015683799246671</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-17.3325472774319</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1787118.23889</v>
@@ -861,19 +867,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -890,40 +896,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>0.283129836298656</v>
+        <v>0.68845647446358</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="H6">
-        <v>0.878787878787879</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.93</v>
+        <v>0.0025</v>
       </c>
       <c r="K6">
-        <v>-0.07998860140722561</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.272755046958976</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.121587100374109</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-1.00868349819957</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q6">
         <v>1787118.23889</v>
@@ -932,16 +938,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -958,37 +967,37 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0.961540096444382</v>
+        <v>0.283129836298656</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.705882352941177</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.065</v>
+        <v>7.93</v>
       </c>
       <c r="K7">
-        <v>-0.0316690751445086</v>
+        <v>-0.07998860140722561</v>
       </c>
       <c r="L7">
-        <v>-0.07057953133615159</v>
+        <v>-0.272755046958976</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.121587100374109</v>
       </c>
       <c r="N7">
-        <v>-2.97362207929658</v>
+        <v>-1.00868349819957</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
         <v>38</v>
@@ -1000,19 +1009,16 @@
         <v>5556832.78764</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1029,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.994940017050547</v>
+        <v>0.961540096444382</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.647058823529412</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0245</v>
+        <v>1.065</v>
       </c>
       <c r="K8">
-        <v>-0.0022347042828008</v>
+        <v>-0.0316690751445086</v>
       </c>
       <c r="L8">
-        <v>-0.0037053487774396</v>
+        <v>-0.07057953133615159</v>
       </c>
       <c r="M8">
-        <v>-0.0008899583089212</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-9.12124197061558</v>
+        <v>-2.97362207929658</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
@@ -1071,19 +1077,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1091,10 +1097,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1103,37 +1109,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0.517860301125507</v>
+        <v>0.994940017050547</v>
       </c>
       <c r="G9">
-        <v>0.387755102040816</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.36734693877551</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.6</v>
+        <v>0.0245</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-0.0022347042828008</v>
       </c>
       <c r="L9">
-        <v>-0.0403780139592822</v>
+        <v>-0.0037053487774396</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-0.0008899583089212</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>-9.12124197061558</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>1787118.23889</v>
@@ -1142,19 +1148,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1171,40 +1177,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.787924131787107</v>
+        <v>0.517860301125507</v>
       </c>
       <c r="G10">
-        <v>0.0652173913043478</v>
+        <v>0.387755102040816</v>
       </c>
       <c r="H10">
-        <v>0.456521739130435</v>
+        <v>0.36734693877551</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>16.4</v>
+        <v>2.6</v>
       </c>
       <c r="K10">
-        <v>-0.747697031729785</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-3.0795412582552</v>
+        <v>-0.0403780139592822</v>
       </c>
       <c r="M10">
-        <v>0.313515384275999</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-4.55912824225479</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>1787118.23889</v>
@@ -1213,19 +1219,19 @@
         <v>5556832.78764</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1233,7 +1239,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1242,40 +1248,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>0.861678724798828</v>
+        <v>0.787924131787107</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H11">
-        <v>0.673469387755102</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1.1</v>
+        <v>16.4</v>
       </c>
       <c r="K11">
-        <v>-0.0064022787028922</v>
+        <v>-0.747697031729785</v>
       </c>
       <c r="L11">
-        <v>-0.016976429932214</v>
+        <v>-3.0795412582552</v>
       </c>
       <c r="M11">
-        <v>0.0018072881674006</v>
+        <v>0.313515384275999</v>
       </c>
       <c r="N11">
-        <v>-0.582025336626564</v>
+        <v>-4.55912824225479</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
         <v>1787118.23889</v>
@@ -1284,16 +1290,16 @@
         <v>5556832.78764</v>
       </c>
       <c r="S11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W11" t="s">
         <v>47</v>
@@ -1313,40 +1319,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>0.829222059974643</v>
+        <v>0.861678724798828</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.469387755102041</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.024</v>
+        <v>1.1</v>
       </c>
       <c r="K12">
-        <v>-0.0003108603960224</v>
+        <v>-0.0064022787028922</v>
       </c>
       <c r="L12">
-        <v>-0.0009255233832219</v>
+        <v>-0.016976429932214</v>
       </c>
       <c r="M12">
-        <v>0.0001846881408257</v>
+        <v>0.0018072881674006</v>
       </c>
       <c r="N12">
-        <v>-1.29525165009339</v>
+        <v>-0.582025336626564</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q12">
         <v>1787118.23889</v>
@@ -1355,19 +1361,90 @@
         <v>5556832.78764</v>
       </c>
       <c r="S12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>0.829222059974643</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.469387755102041</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.024</v>
+      </c>
+      <c r="K13">
+        <v>-0.0003108603960224</v>
+      </c>
+      <c r="L13">
+        <v>-0.0009255233832219</v>
+      </c>
+      <c r="M13">
+        <v>0.0001846881408257</v>
+      </c>
+      <c r="N13">
+        <v>-1.29525165009339</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13">
+        <v>1787118.23889</v>
+      </c>
+      <c r="R13">
+        <v>5556832.78764</v>
+      </c>
+      <c r="S13" t="s">
         <v>41</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T13" t="s">
         <v>42</v>
       </c>
-      <c r="V12" t="s">
+      <c r="U13" t="s">
         <v>43</v>
       </c>
-      <c r="W12" t="s">
-        <v>47</v>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
